--- a/Techacks convert coordinates.xlsx
+++ b/Techacks convert coordinates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b01a8855a95a7a41/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlmic\Documents\GitHub\TechHacks-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{E47CE56F-27AD-49DC-8433-97E8A2AF122F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9EFAB67-5583-469A-BB9F-04C09D4E2D67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84555A7-7770-41A3-AB33-19DC80081E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFAABAB5-DFA7-49E1-B26C-D07BA7690F01}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="10">
   <si>
     <t>{lat: 25.774, lng: -80.190},</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Andean</t>
   </si>
 </sst>
 </file>
@@ -410,23 +416,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D414A66-26ED-4602-AEB7-479D44B7DB86}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47:I99"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="89" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>25.120001500000001</v>
       </c>
@@ -449,15 +455,11 @@
         <v>4</v>
       </c>
       <c r="H2" t="str">
-        <f>D2&amp;A2&amp;E2&amp;F2&amp;B2&amp;G2</f>
-        <v>{lat: 25.1200015, lng: 31.5751772},</v>
-      </c>
-      <c r="I2" t="str">
-        <f>D2&amp;B2&amp;E2&amp;F2&amp;A2&amp;G2</f>
+        <f t="shared" ref="H2:H20" si="0">D2&amp;B2&amp;E2&amp;F2&amp;A2&amp;G2</f>
         <v>{lat: 31.5751772, lng: 25.1200015},</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>26.0950378</v>
       </c>
@@ -480,15 +482,11 @@
         <v>4</v>
       </c>
       <c r="H3" t="str">
-        <f>D3&amp;A3&amp;E3&amp;F3&amp;B3&amp;G3</f>
-        <v>{lat: 26.0950378, lng: 28.580766},</v>
-      </c>
-      <c r="I3" t="str">
-        <f>D3&amp;B3&amp;E3&amp;F3&amp;A3&amp;G3</f>
+        <f t="shared" si="0"/>
         <v>{lat: 28.580766, lng: 26.0950378},</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>28.912744199999999</v>
       </c>
@@ -511,15 +509,11 @@
         <v>4</v>
       </c>
       <c r="H4" t="str">
-        <f>D4&amp;A4&amp;E4&amp;F4&amp;B4&amp;G4</f>
-        <v>{lat: 28.9127442, lng: 26.887149},</v>
-      </c>
-      <c r="I4" t="str">
-        <f>D4&amp;B4&amp;E4&amp;F4&amp;A4&amp;G4</f>
+        <f t="shared" si="0"/>
         <v>{lat: 26.887149, lng: 28.9127442},</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>29.646368800000001</v>
       </c>
@@ -542,15 +536,11 @@
         <v>4</v>
       </c>
       <c r="H5" t="str">
-        <f>D5&amp;A5&amp;E5&amp;F5&amp;B5&amp;G5</f>
-        <v>{lat: 29.6463688, lng: 24.5435375},</v>
-      </c>
-      <c r="I5" t="str">
-        <f>D5&amp;B5&amp;E5&amp;F5&amp;A5&amp;G5</f>
+        <f t="shared" si="0"/>
         <v>{lat: 24.5435375, lng: 29.6463688},</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>31.278047900000001</v>
       </c>
@@ -573,15 +563,11 @@
         <v>4</v>
       </c>
       <c r="H6" t="str">
-        <f>D6&amp;A6&amp;E6&amp;F6&amp;B6&amp;G6</f>
-        <v>{lat: 31.2780479, lng: 21.3452272},</v>
-      </c>
-      <c r="I6" t="str">
-        <f>D6&amp;B6&amp;E6&amp;F6&amp;A6&amp;G6</f>
+        <f t="shared" si="0"/>
         <v>{lat: 21.3452272, lng: 31.2780479},</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>37.292853200000003</v>
       </c>
@@ -604,15 +590,11 @@
         <v>4</v>
       </c>
       <c r="H7" t="str">
-        <f>D7&amp;A7&amp;E7&amp;F7&amp;B7&amp;G7</f>
-        <v>{lat: 37.2928532, lng: 18.8089865},</v>
-      </c>
-      <c r="I7" t="str">
-        <f>D7&amp;B7&amp;E7&amp;F7&amp;A7&amp;G7</f>
+        <f t="shared" si="0"/>
         <v>{lat: 18.8089865, lng: 37.2928532},</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>36.916435800000002</v>
       </c>
@@ -635,15 +617,11 @@
         <v>4</v>
       </c>
       <c r="H8" t="str">
-        <f>D8&amp;A8&amp;E8&amp;F8&amp;B8&amp;G8</f>
-        <v>{lat: 36.9164358, lng: 22.0212538},</v>
-      </c>
-      <c r="I8" t="str">
-        <f>D8&amp;B8&amp;E8&amp;F8&amp;A8&amp;G8</f>
+        <f t="shared" si="0"/>
         <v>{lat: 22.0212538, lng: 36.9164358},</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>32.370978100000002</v>
       </c>
@@ -666,15 +644,11 @@
         <v>4</v>
       </c>
       <c r="H9" t="str">
-        <f>D9&amp;A9&amp;E9&amp;F9&amp;B9&amp;G9</f>
-        <v>{lat: 32.3709781, lng: 29.7990973},</v>
-      </c>
-      <c r="I9" t="str">
-        <f>D9&amp;B9&amp;E9&amp;F9&amp;A9&amp;G9</f>
+        <f t="shared" si="0"/>
         <v>{lat: 29.7990973, lng: 32.3709781},</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>33.982289399999999</v>
       </c>
@@ -697,15 +671,11 @@
         <v>4</v>
       </c>
       <c r="H10" t="str">
-        <f>D10&amp;A10&amp;E10&amp;F10&amp;B10&amp;G10</f>
-        <v>{lat: 33.9822894, lng: 27.6887451},</v>
-      </c>
-      <c r="I10" t="str">
-        <f>D10&amp;B10&amp;E10&amp;F10&amp;A10&amp;G10</f>
+        <f t="shared" si="0"/>
         <v>{lat: 27.6887451, lng: 33.9822894},</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>35.217419100000001</v>
       </c>
@@ -728,15 +698,11 @@
         <v>4</v>
       </c>
       <c r="H11" t="str">
-        <f>D11&amp;A11&amp;E11&amp;F11&amp;B11&amp;G11</f>
-        <v>{lat: 35.2174191, lng: 30.5907173},</v>
-      </c>
-      <c r="I11" t="str">
-        <f>D11&amp;B11&amp;E11&amp;F11&amp;A11&amp;G11</f>
+        <f t="shared" si="0"/>
         <v>{lat: 30.5907173, lng: 35.2174191},</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>35.906129399999998</v>
       </c>
@@ -759,15 +725,11 @@
         <v>4</v>
       </c>
       <c r="H12" t="str">
-        <f>D12&amp;A12&amp;E12&amp;F12&amp;B12&amp;G12</f>
-        <v>{lat: 35.9061294, lng: 32.8267812},</v>
-      </c>
-      <c r="I12" t="str">
-        <f>D12&amp;B12&amp;E12&amp;F12&amp;A12&amp;G12</f>
+        <f t="shared" si="0"/>
         <v>{lat: 32.8267812, lng: 35.9061294},</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>37.481738</v>
       </c>
@@ -790,15 +752,11 @@
         <v>4</v>
       </c>
       <c r="H13" t="str">
-        <f>D13&amp;A13&amp;E13&amp;F13&amp;B13&amp;G13</f>
-        <v>{lat: 37.481738, lng: 35.8764329},</v>
-      </c>
-      <c r="I13" t="str">
-        <f>D13&amp;B13&amp;E13&amp;F13&amp;A13&amp;G13</f>
+        <f t="shared" si="0"/>
         <v>{lat: 35.8764329, lng: 37.481738},</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>35.603803999999997</v>
       </c>
@@ -821,15 +779,11 @@
         <v>4</v>
       </c>
       <c r="H14" t="str">
-        <f>D14&amp;A14&amp;E14&amp;F14&amp;B14&amp;G14</f>
-        <v>{lat: 35.603804, lng: 35.4372694},</v>
-      </c>
-      <c r="I14" t="str">
-        <f>D14&amp;B14&amp;E14&amp;F14&amp;A14&amp;G14</f>
+        <f t="shared" si="0"/>
         <v>{lat: 35.4372694, lng: 35.603804},</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>35.138295200000002</v>
       </c>
@@ -852,15 +806,11 @@
         <v>4</v>
       </c>
       <c r="H15" t="str">
-        <f>D15&amp;A15&amp;E15&amp;F15&amp;B15&amp;G15</f>
-        <v>{lat: 35.1382952, lng: 33.6170218},</v>
-      </c>
-      <c r="I15" t="str">
-        <f>D15&amp;B15&amp;E15&amp;F15&amp;A15&amp;G15</f>
+        <f t="shared" si="0"/>
         <v>{lat: 33.6170218, lng: 35.1382952},</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>34.088407099999998</v>
       </c>
@@ -883,15 +833,11 @@
         <v>4</v>
       </c>
       <c r="H16" t="str">
-        <f>D16&amp;A16&amp;E16&amp;F16&amp;B16&amp;G16</f>
-        <v>{lat: 34.0884071, lng: 31.9384723},</v>
-      </c>
-      <c r="I16" t="str">
-        <f>D16&amp;B16&amp;E16&amp;F16&amp;A16&amp;G16</f>
+        <f t="shared" si="0"/>
         <v>{lat: 31.9384723, lng: 34.0884071},</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>32.762626900000001</v>
       </c>
@@ -914,15 +860,11 @@
         <v>4</v>
       </c>
       <c r="H17" t="str">
-        <f>D17&amp;A17&amp;E17&amp;F17&amp;B17&amp;G17</f>
-        <v>{lat: 32.7626269, lng: 31.2415852},</v>
-      </c>
-      <c r="I17" t="str">
-        <f>D17&amp;B17&amp;E17&amp;F17&amp;A17&amp;G17</f>
+        <f t="shared" si="0"/>
         <v>{lat: 31.2415852, lng: 32.7626269},</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>31.089949300000001</v>
       </c>
@@ -945,15 +887,11 @@
         <v>4</v>
       </c>
       <c r="H18" t="str">
-        <f>D18&amp;A18&amp;E18&amp;F18&amp;B18&amp;G18</f>
-        <v>{lat: 31.0899493, lng: 31.6509345},</v>
-      </c>
-      <c r="I18" t="str">
-        <f>D18&amp;B18&amp;E18&amp;F18&amp;A18&amp;G18</f>
+        <f t="shared" si="0"/>
         <v>{lat: 31.6509345, lng: 31.0899493},</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>29.241942300000002</v>
       </c>
@@ -976,15 +914,11 @@
         <v>4</v>
       </c>
       <c r="H19" t="str">
-        <f>D19&amp;A19&amp;E19&amp;F19&amp;B19&amp;G19</f>
-        <v>{lat: 29.2419423, lng: 30.7598794},</v>
-      </c>
-      <c r="I19" t="str">
-        <f>D19&amp;B19&amp;E19&amp;F19&amp;A19&amp;G19</f>
+        <f t="shared" si="0"/>
         <v>{lat: 30.7598794, lng: 29.2419423},</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>25.120001500000001</v>
       </c>
@@ -1007,20 +941,16 @@
         <v>4</v>
       </c>
       <c r="H20" t="str">
-        <f>D20&amp;A20&amp;E20&amp;F20&amp;B20&amp;G20</f>
-        <v>{lat: 25.1200015, lng: 31.5751772},</v>
-      </c>
-      <c r="I20" t="str">
-        <f>D20&amp;B20&amp;E20&amp;F20&amp;A20&amp;G20</f>
+        <f t="shared" si="0"/>
         <v>{lat: 31.5751772, lng: 25.1200015},</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>-97.691681200000005</v>
       </c>
@@ -1042,12 +972,12 @@
       <c r="G25" t="s">
         <v>4</v>
       </c>
-      <c r="I25" t="str">
-        <f>D25&amp;B25&amp;E25&amp;F25&amp;A25&amp;G25</f>
+      <c r="H25" t="str">
+        <f t="shared" ref="H25:H44" si="1">D25&amp;B25&amp;E25&amp;F25&amp;A25&amp;G25</f>
         <v>{lat: 27.214028, lng: -97.6916812},</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>-100.9436343</v>
       </c>
@@ -1069,12 +999,12 @@
       <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" t="str">
-        <f>D26&amp;B26&amp;E26&amp;F26&amp;A26&amp;G26</f>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 27.4482654, lng: -100.9436343},</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>-101.4709781</v>
       </c>
@@ -1096,12 +1026,12 @@
       <c r="G27" t="s">
         <v>4</v>
       </c>
-      <c r="I27" t="str">
-        <f>D27&amp;B27&amp;E27&amp;F27&amp;A27&amp;G27</f>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 25.4813999, lng: -101.4709781},</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-107.35964989999999</v>
       </c>
@@ -1123,12 +1053,12 @@
       <c r="G28" t="s">
         <v>4</v>
       </c>
-      <c r="I28" t="str">
-        <f>D28&amp;B28&amp;E28&amp;F28&amp;A28&amp;G28</f>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 28.9970288, lng: -107.3596499},</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>-112.3694156</v>
       </c>
@@ -1150,12 +1080,12 @@
       <c r="G29" t="s">
         <v>4</v>
       </c>
-      <c r="I29" t="str">
-        <f>D29&amp;B29&amp;E29&amp;F29&amp;A29&amp;G29</f>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 30.9761358, lng: -112.3694156},</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>-112.3694156</v>
       </c>
@@ -1177,12 +1107,12 @@
       <c r="G30" t="s">
         <v>4</v>
       </c>
-      <c r="I30" t="str">
-        <f>D30&amp;B30&amp;E30&amp;F30&amp;A30&amp;G30</f>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 29.2273904, lng: -112.3694156},</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>-104.9866031</v>
       </c>
@@ -1204,12 +1134,12 @@
       <c r="G31" t="s">
         <v>4</v>
       </c>
-      <c r="I31" t="str">
-        <f>D31&amp;B31&amp;E31&amp;F31&amp;A31&amp;G31</f>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 22.0229526, lng: -104.9866031},</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>-105.5139468</v>
       </c>
@@ -1231,12 +1161,12 @@
       <c r="G32" t="s">
         <v>4</v>
       </c>
-      <c r="I32" t="str">
-        <f>D32&amp;B32&amp;E32&amp;F32&amp;A32&amp;G32</f>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 19.5581709, lng: -105.5139468},</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>-96.724884299999999</v>
       </c>
@@ -1258,12 +1188,12 @@
       <c r="G33" t="s">
         <v>4</v>
       </c>
-      <c r="I33" t="str">
-        <f>D33&amp;B33&amp;E33&amp;F33&amp;A33&amp;G33</f>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 15.9596769, lng: -96.7248843},</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>-93.912384299999999</v>
       </c>
@@ -1285,12 +1215,12 @@
       <c r="G34" t="s">
         <v>4</v>
       </c>
-      <c r="I34" t="str">
-        <f>D34&amp;B34&amp;E34&amp;F34&amp;A34&amp;G34</f>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 16.4660468, lng: -93.9123843},</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>-89.342071799999999</v>
       </c>
@@ -1312,12 +1242,12 @@
       <c r="G35" t="s">
         <v>4</v>
       </c>
-      <c r="I35" t="str">
-        <f>D35&amp;B35&amp;E35&amp;F35&amp;A35&amp;G35</f>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 13.4948018, lng: -89.3420718},</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>-84.947540599999996</v>
       </c>
@@ -1339,12 +1269,12 @@
       <c r="G36" t="s">
         <v>4</v>
       </c>
-      <c r="I36" t="str">
-        <f>D36&amp;B36&amp;E36&amp;F36&amp;A36&amp;G36</f>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 12.4670823, lng: -84.9475406},</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>-89.342071799999999</v>
       </c>
@@ -1366,12 +1296,12 @@
       <c r="G37" t="s">
         <v>4</v>
       </c>
-      <c r="I37" t="str">
-        <f>D37&amp;B37&amp;E37&amp;F37&amp;A37&amp;G37</f>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 16.5503145, lng: -89.3420718},</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>-87.232696799999999</v>
       </c>
@@ -1393,12 +1323,12 @@
       <c r="G38" t="s">
         <v>4</v>
       </c>
-      <c r="I38" t="str">
-        <f>D38&amp;B38&amp;E38&amp;F38&amp;A38&amp;G38</f>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 21.2058567, lng: -87.2326968},</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>-91.451446799999999</v>
       </c>
@@ -1420,12 +1350,12 @@
       <c r="G39" t="s">
         <v>4</v>
       </c>
-      <c r="I39" t="str">
-        <f>D39&amp;B39&amp;E39&amp;F39&amp;A39&amp;G39</f>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 20.8777374, lng: -91.4514468},</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>-91.776936500000005</v>
       </c>
@@ -1447,12 +1377,12 @@
       <c r="G40" t="s">
         <v>4</v>
       </c>
-      <c r="I40" t="str">
-        <f>D40&amp;B40&amp;E40&amp;F40&amp;A40&amp;G40</f>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 18.7267347, lng: -91.7769365},</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>-95.380452099999999</v>
       </c>
@@ -1474,12 +1404,12 @@
       <c r="G41" t="s">
         <v>4</v>
       </c>
-      <c r="I41" t="str">
-        <f>D41&amp;B41&amp;E41&amp;F41&amp;A41&amp;G41</f>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 18.6434765, lng: -95.3804521},</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>-97.401936500000005</v>
       </c>
@@ -1501,12 +1431,12 @@
       <c r="G42" t="s">
         <v>4</v>
       </c>
-      <c r="I42" t="str">
-        <f>D42&amp;B42&amp;E42&amp;F42&amp;A42&amp;G42</f>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 20.9176675, lng: -97.4019365},</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>-97.841389599999999</v>
       </c>
@@ -1528,12 +1458,12 @@
       <c r="G43" t="s">
         <v>4</v>
       </c>
-      <c r="I43" t="str">
-        <f>D43&amp;B43&amp;E43&amp;F43&amp;A43&amp;G43</f>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 23.6418475, lng: -97.8413896},</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>-97.691681200000005</v>
       </c>
@@ -1555,17 +1485,17 @@
       <c r="G44" t="s">
         <v>4</v>
       </c>
-      <c r="I44" t="str">
-        <f>D44&amp;B44&amp;E44&amp;F44&amp;A44&amp;G44</f>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
         <v>{lat: 27.214028, lng: -97.6916812},</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>72.473147299999994</v>
       </c>
@@ -1587,12 +1517,12 @@
       <c r="G47" t="s">
         <v>4</v>
       </c>
-      <c r="I47" t="str">
+      <c r="H47" t="str">
         <f>D47&amp;B47&amp;E47&amp;F47&amp;A47&amp;G47</f>
         <v>{lat: 19.5917864, lng: 72.4731473},</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>73.007557199999994</v>
       </c>
@@ -1614,12 +1544,12 @@
       <c r="G48" t="s">
         <v>4</v>
       </c>
-      <c r="I48" t="str">
-        <f t="shared" ref="I48:I99" si="0">D48&amp;B48&amp;E48&amp;F48&amp;A48&amp;G48</f>
+      <c r="H48" t="str">
+        <f t="shared" ref="H48:H99" si="2">D48&amp;B48&amp;E48&amp;F48&amp;A48&amp;G48</f>
         <v>{lat: 18.6774369, lng: 73.0075572},</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>73.0111019</v>
       </c>
@@ -1641,12 +1571,12 @@
       <c r="G49" t="s">
         <v>4</v>
       </c>
-      <c r="I49" t="str">
-        <f t="shared" si="0"/>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 17.3461432, lng: 73.0111019},</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>74.486520100000007</v>
       </c>
@@ -1668,12 +1598,12 @@
       <c r="G50" t="s">
         <v>4</v>
       </c>
-      <c r="I50" t="str">
-        <f t="shared" si="0"/>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 13.7923734, lng: 74.4865201},</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>74.711033499999999</v>
       </c>
@@ -1695,12 +1625,12 @@
       <c r="G51" t="s">
         <v>4</v>
       </c>
-      <c r="I51" t="str">
-        <f t="shared" si="0"/>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 12.1094885, lng: 74.7110335},</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>75.573117199999999</v>
       </c>
@@ -1722,12 +1652,12 @@
       <c r="G52" t="s">
         <v>4</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" si="0"/>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 11.5541132, lng: 75.5731172},</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>76.264107899999999</v>
       </c>
@@ -1749,12 +1679,12 @@
       <c r="G53" t="s">
         <v>4</v>
       </c>
-      <c r="I53" t="str">
-        <f t="shared" si="0"/>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 9.4175373, lng: 76.2641079},</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>77.384613099999996</v>
       </c>
@@ -1776,12 +1706,12 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="I54" t="str">
-        <f t="shared" si="0"/>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 7.8852516, lng: 77.3846131},</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>78.270009900000005</v>
       </c>
@@ -1803,12 +1733,12 @@
       <c r="G55" t="s">
         <v>4</v>
       </c>
-      <c r="I55" t="str">
-        <f t="shared" si="0"/>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 8.9689399, lng: 78.2700099},</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>79.286677600000004</v>
       </c>
@@ -1830,12 +1760,12 @@
       <c r="G56" t="s">
         <v>4</v>
       </c>
-      <c r="I56" t="str">
-        <f t="shared" si="0"/>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 9.9428923, lng: 79.2866776},</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>79.647511699999995</v>
       </c>
@@ -1857,12 +1787,12 @@
       <c r="G57" t="s">
         <v>4</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="0"/>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 10.4814235, lng: 79.6475117},</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>79.890490400000004</v>
       </c>
@@ -1884,12 +1814,12 @@
       <c r="G58" t="s">
         <v>4</v>
       </c>
-      <c r="I58" t="str">
-        <f t="shared" si="0"/>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 12.1418594, lng: 79.8904904},</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>80.400233900000003</v>
       </c>
@@ -1911,12 +1841,12 @@
       <c r="G59" t="s">
         <v>4</v>
       </c>
-      <c r="I59" t="str">
-        <f t="shared" si="0"/>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 12.7697286, lng: 80.4002339},</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>80.120857599999994</v>
       </c>
@@ -1938,12 +1868,12 @@
       <c r="G60" t="s">
         <v>4</v>
       </c>
-      <c r="I60" t="str">
-        <f t="shared" si="0"/>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 13.658914, lng: 80.1208576},</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>80.191756400000003</v>
       </c>
@@ -1965,12 +1895,12 @@
       <c r="G61" t="s">
         <v>4</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="0"/>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 15.5717874, lng: 80.1917564},</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>81.558235499999995</v>
       </c>
@@ -1992,12 +1922,12 @@
       <c r="G62" t="s">
         <v>4</v>
       </c>
-      <c r="I62" t="str">
-        <f t="shared" si="0"/>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 16.3180534, lng: 81.5582355},</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>82.402334100000004</v>
       </c>
@@ -2019,12 +1949,12 @@
       <c r="G63" t="s">
         <v>4</v>
       </c>
-      <c r="I63" t="str">
-        <f t="shared" si="0"/>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 16.4677693, lng: 82.4023341},</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>82.597586300000003</v>
       </c>
@@ -2046,12 +1976,12 @@
       <c r="G64" t="s">
         <v>4</v>
       </c>
-      <c r="I64" t="str">
-        <f t="shared" si="0"/>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 17.202151, lng: 82.5975863},</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>84.831018999999998</v>
       </c>
@@ -2073,12 +2003,12 @@
       <c r="G65" t="s">
         <v>4</v>
       </c>
-      <c r="I65" t="str">
-        <f t="shared" si="0"/>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 18.9352022, lng: 84.831019},</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>85.431981100000002</v>
       </c>
@@ -2100,12 +2030,12 @@
       <c r="G66" t="s">
         <v>4</v>
       </c>
-      <c r="I66" t="str">
-        <f t="shared" si="0"/>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 19.8230877, lng: 85.4319811},</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>86.565319500000001</v>
       </c>
@@ -2127,12 +2057,12 @@
       <c r="G67" t="s">
         <v>4</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" si="0"/>
+      <c r="H67" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 19.8789648, lng: 86.5653195},</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>87.0090237</v>
       </c>
@@ -2154,12 +2084,12 @@
       <c r="G68" t="s">
         <v>4</v>
       </c>
-      <c r="I68" t="str">
-        <f t="shared" si="0"/>
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 21.1263554, lng: 87.0090237},</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>87.886963800000004</v>
       </c>
@@ -2181,12 +2111,12 @@
       <c r="G69" t="s">
         <v>4</v>
       </c>
-      <c r="I69" t="str">
-        <f t="shared" si="0"/>
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 21.7556184, lng: 87.8869638},</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>89.127522400000004</v>
       </c>
@@ -2208,12 +2138,12 @@
       <c r="G70" t="s">
         <v>4</v>
       </c>
-      <c r="I70" t="str">
-        <f t="shared" si="0"/>
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 22.2390633, lng: 89.1275224},</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>89.009820300000001</v>
       </c>
@@ -2235,12 +2165,12 @@
       <c r="G71" t="s">
         <v>4</v>
       </c>
-      <c r="I71" t="str">
-        <f t="shared" si="0"/>
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 22.8909061, lng: 89.0098203},</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>88.888592099999997</v>
       </c>
@@ -2262,12 +2192,12 @@
       <c r="G72" t="s">
         <v>4</v>
       </c>
-      <c r="I72" t="str">
-        <f t="shared" si="0"/>
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 23.3826854, lng: 88.8885921},</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>88.013635199999996</v>
       </c>
@@ -2289,12 +2219,12 @@
       <c r="G73" t="s">
         <v>4</v>
       </c>
-      <c r="I73" t="str">
-        <f t="shared" si="0"/>
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 24.8986256, lng: 88.0136352},</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>87.458156299999999</v>
       </c>
@@ -2316,12 +2246,12 @@
       <c r="G74" t="s">
         <v>4</v>
       </c>
-      <c r="I74" t="str">
-        <f t="shared" si="0"/>
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 26.6048108, lng: 87.4581563},</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>85.906425299999995</v>
       </c>
@@ -2343,12 +2273,12 @@
       <c r="G75" t="s">
         <v>4</v>
       </c>
-      <c r="I75" t="str">
-        <f t="shared" si="0"/>
+      <c r="H75" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 26.911187, lng: 85.9064253},</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>83.906238000000002</v>
       </c>
@@ -2370,12 +2300,12 @@
       <c r="G76" t="s">
         <v>4</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" si="0"/>
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 27.345382, lng: 83.906238},</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>81.871014599999995</v>
       </c>
@@ -2397,12 +2327,12 @@
       <c r="G77" t="s">
         <v>4</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" si="0"/>
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 27.854996, lng: 81.8710146},</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>80.250812400000001</v>
       </c>
@@ -2424,12 +2354,12 @@
       <c r="G78" t="s">
         <v>4</v>
       </c>
-      <c r="I78" t="str">
+      <c r="H78" t="str">
         <f>D78&amp;B78&amp;E78&amp;F78&amp;A78&amp;G78</f>
         <v>{lat: 28.8936778, lng: 80.2508124},</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>80.197874600000006</v>
       </c>
@@ -2451,12 +2381,12 @@
       <c r="G79" t="s">
         <v>4</v>
       </c>
-      <c r="I79" t="str">
-        <f t="shared" si="0"/>
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 29.6962281, lng: 80.1978746},</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78.556294399999999</v>
       </c>
@@ -2478,12 +2408,12 @@
       <c r="G80" t="s">
         <v>4</v>
       </c>
-      <c r="I80" t="str">
-        <f t="shared" si="0"/>
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 32.2221432, lng: 78.5562944},</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>76.992371399999996</v>
       </c>
@@ -2505,12 +2435,12 @@
       <c r="G81" t="s">
         <v>4</v>
       </c>
-      <c r="I81" t="str">
-        <f t="shared" si="0"/>
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 31.7068022, lng: 76.9923714},</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>76.206755200000003</v>
       </c>
@@ -2532,12 +2462,12 @@
       <c r="G82" t="s">
         <v>4</v>
       </c>
-      <c r="I82" t="str">
-        <f t="shared" si="0"/>
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 31.594792, lng: 76.2067552},</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>74.935052900000002</v>
       </c>
@@ -2559,12 +2489,12 @@
       <c r="G83" t="s">
         <v>4</v>
       </c>
-      <c r="I83" t="str">
-        <f t="shared" si="0"/>
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 31.6721939, lng: 74.9350529},</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>74.600797299999996</v>
       </c>
@@ -2586,12 +2516,12 @@
       <c r="G84" t="s">
         <v>4</v>
       </c>
-      <c r="I84" t="str">
-        <f t="shared" si="0"/>
+      <c r="H84" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 31.3032071, lng: 74.6007973},</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>72.881145799999999</v>
       </c>
@@ -2613,12 +2543,12 @@
       <c r="G85" t="s">
         <v>4</v>
       </c>
-      <c r="I85" t="str">
-        <f t="shared" si="0"/>
+      <c r="H85" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 29.1127419, lng: 72.8811458},</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>71.788912600000003</v>
       </c>
@@ -2640,12 +2570,12 @@
       <c r="G86" t="s">
         <v>4</v>
       </c>
-      <c r="I86" t="str">
-        <f t="shared" si="0"/>
+      <c r="H86" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 27.7735194, lng: 71.7889126},</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>70.272964000000002</v>
       </c>
@@ -2667,12 +2597,12 @@
       <c r="G87" t="s">
         <v>4</v>
       </c>
-      <c r="I87" t="str">
-        <f t="shared" si="0"/>
+      <c r="H87" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 27.938997, lng: 70.272964},</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>69.530550700000006</v>
       </c>
@@ -2694,12 +2624,12 @@
       <c r="G88" t="s">
         <v>4</v>
       </c>
-      <c r="I88" t="str">
-        <f t="shared" si="0"/>
+      <c r="H88" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 26.9819843, lng: 69.5305507},</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>71.365809100000007</v>
       </c>
@@ -2721,12 +2651,12 @@
       <c r="G89" t="s">
         <v>4</v>
       </c>
-      <c r="I89" t="str">
-        <f t="shared" si="0"/>
+      <c r="H89" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 24.3635294, lng: 71.3658091},</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>68.947377599999996</v>
       </c>
@@ -2748,12 +2678,12 @@
       <c r="G90" t="s">
         <v>4</v>
       </c>
-      <c r="I90" t="str">
-        <f t="shared" si="0"/>
+      <c r="H90" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 24.3382112, lng: 68.9473776},</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>68.382843500000007</v>
       </c>
@@ -2775,12 +2705,12 @@
       <c r="G91" t="s">
         <v>4</v>
       </c>
-      <c r="I91" t="str">
-        <f t="shared" si="0"/>
+      <c r="H91" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 23.6570141, lng: 68.3828435},</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>68.970393200000004</v>
       </c>
@@ -2802,12 +2732,12 @@
       <c r="G92" t="s">
         <v>4</v>
       </c>
-      <c r="I92" t="str">
-        <f t="shared" si="0"/>
+      <c r="H92" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 22.8648424, lng: 68.9703932},</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>70.079814099999993</v>
       </c>
@@ -2829,12 +2759,12 @@
       <c r="G93" t="s">
         <v>4</v>
       </c>
-      <c r="I93" t="str">
-        <f t="shared" si="0"/>
+      <c r="H93" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 22.7959959, lng: 70.0798141},</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>69.038067499999997</v>
       </c>
@@ -2856,12 +2786,12 @@
       <c r="G94" t="s">
         <v>4</v>
       </c>
-      <c r="I94" t="str">
+      <c r="H94" t="str">
         <f>D94&amp;B94&amp;E94&amp;F94&amp;A94&amp;G94</f>
         <v>{lat: 22.2257942, lng: 69.0380675},</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>70.628844299999997</v>
       </c>
@@ -2883,12 +2813,12 @@
       <c r="G95" t="s">
         <v>4</v>
       </c>
-      <c r="I95" t="str">
-        <f t="shared" si="0"/>
+      <c r="H95" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 20.5954737, lng: 70.6288443},</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>71.776879500000007</v>
       </c>
@@ -2910,12 +2840,12 @@
       <c r="G96" t="s">
         <v>4</v>
       </c>
-      <c r="I96" t="str">
-        <f t="shared" si="0"/>
+      <c r="H96" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 20.8779393, lng: 71.7768795},</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>72.498225099999999</v>
       </c>
@@ -2937,12 +2867,12 @@
       <c r="G97" t="s">
         <v>4</v>
       </c>
-      <c r="I97" t="str">
-        <f t="shared" si="0"/>
+      <c r="H97" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 21.7570771, lng: 72.4982251},</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>72.524619799999996</v>
       </c>
@@ -2964,12 +2894,12 @@
       <c r="G98" t="s">
         <v>4</v>
       </c>
-      <c r="I98" t="str">
-        <f t="shared" si="0"/>
+      <c r="H98" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 20.9803777, lng: 72.5246198},</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>72.473147299999994</v>
       </c>
@@ -2991,13 +2921,1541 @@
       <c r="G99" t="s">
         <v>4</v>
       </c>
-      <c r="I99" t="str">
-        <f t="shared" si="0"/>
+      <c r="H99" t="str">
+        <f t="shared" si="2"/>
         <v>{lat: 19.5917864, lng: 72.4731473},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>86.8353362</v>
+      </c>
+      <c r="B102">
+        <v>48.6554912</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" ref="H102:H125" si="3">D102&amp;B102&amp;E102&amp;F102&amp;A102&amp;G102</f>
+        <v>{lat: 48.6554912, lng: 86.8353362},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>79.8040862</v>
+      </c>
+      <c r="B103">
+        <v>43.413914300000002</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 43.4139143, lng: 79.8040862},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>73.651742499999997</v>
+      </c>
+      <c r="B104">
+        <v>39.462584800000002</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 39.4625848, lng: 73.6517425},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>78.573617499999997</v>
+      </c>
+      <c r="B105">
+        <v>30.705106399999998</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>4</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 30.7051064, lng: 78.5736175},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>91.229867499999997</v>
+      </c>
+      <c r="B106">
+        <v>26.225540599999999</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 26.2255406, lng: 91.2298675},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106.347055</v>
+      </c>
+      <c r="B107">
+        <v>22.544126899999998</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>4</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 22.5441269, lng: 106.347055},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>112.3236175</v>
+      </c>
+      <c r="B108">
+        <v>22.3816828</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 22.3816828, lng: 112.3236175},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>117.2454925</v>
+      </c>
+      <c r="B109">
+        <v>23.030309299999999</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>4</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 23.0303093, lng: 117.2454925},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>122.51893</v>
+      </c>
+      <c r="B110">
+        <v>29.335360999999999</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 29.335361, lng: 122.51893},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>119.70643</v>
+      </c>
+      <c r="B111">
+        <v>34.697463499999998</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 34.6974635, lng: 119.70643},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>122.3431487</v>
+      </c>
+      <c r="B112">
+        <v>37.257536399999999</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 37.2575364, lng: 122.3431487},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>118.8275237</v>
+      </c>
+      <c r="B113">
+        <v>38.092296099999999</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 38.0922961, lng: 118.8275237},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>121.4642425</v>
+      </c>
+      <c r="B114">
+        <v>40.806416599999999</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 40.8064166, lng: 121.4642425},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>126.3861175</v>
+      </c>
+      <c r="B115">
+        <v>38.643570099999998</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 38.6435701, lng: 126.3861175},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>126.73768</v>
+      </c>
+      <c r="B116">
+        <v>34.697463499999998</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 34.6974635, lng: 126.73768},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>129.90174250000001</v>
+      </c>
+      <c r="B117">
+        <v>37.117498300000001</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 37.1174983, lng: 129.9017425},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>127.0892425</v>
+      </c>
+      <c r="B118">
+        <v>40.406058999999999</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 40.406059, lng: 127.0892425},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>131.4837737</v>
+      </c>
+      <c r="B119">
+        <v>42.123577400000002</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>4</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 42.1235774, lng: 131.4837737},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>131.30799250000001</v>
+      </c>
+      <c r="B120">
+        <v>45.175151900000003</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 45.1751519, lng: 131.3079925},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>123.7493987</v>
+      </c>
+      <c r="B121">
+        <v>53.193600600000003</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 53.1936006, lng: 123.7493987},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>115.8392425</v>
+      </c>
+      <c r="B122">
+        <v>49.0026437</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 49.0026437, lng: 115.8392425},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>118.6517425</v>
+      </c>
+      <c r="B123">
+        <v>46.642730899999997</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" t="s">
+        <v>4</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 46.6427309, lng: 118.6517425},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>105.64393</v>
+      </c>
+      <c r="B124">
+        <v>41.468341799999997</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>4</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 41.4683418, lng: 105.64393},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>86.8353362</v>
+      </c>
+      <c r="B125">
+        <v>48.6554912</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>4</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="3"/>
+        <v>{lat: 48.6554912, lng: 86.8353362},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>-80.733452600000007</v>
+      </c>
+      <c r="B128">
+        <v>-6.0191727000000004</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>4</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" ref="H128:H138" si="4">D128&amp;B128&amp;E128&amp;F128&amp;A128&amp;G128</f>
+        <v>{lat: -6.0191727, lng: -80.7334526},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>-78.096733900000004</v>
+      </c>
+      <c r="B129">
+        <v>-10.021747899999999</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" t="s">
+        <v>4</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -10.0217479, lng: -78.0967339},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>-75.811577600000007</v>
+      </c>
+      <c r="B130">
+        <v>-14.3164336</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -14.3164336, lng: -75.8115776},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>-70.010796400000004</v>
+      </c>
+      <c r="B131">
+        <v>-18.5305444</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" t="s">
+        <v>4</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -18.5305444, lng: -70.0107964},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>-71.592827600000007</v>
+      </c>
+      <c r="B132">
+        <v>-29.4289676</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -29.4289676, lng: -71.5928276},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>-71.592827600000007</v>
+      </c>
+      <c r="B133">
+        <v>-33.329509700000003</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>4</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -33.3295097, lng: -71.5928276},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>-73.350640100000007</v>
+      </c>
+      <c r="B134">
+        <v>-38.176792599999999</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>4</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -38.1767926, lng: -73.3506401},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>-73.702202600000007</v>
+      </c>
+      <c r="B135">
+        <v>-41.285146300000001</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>4</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -41.2851463, lng: -73.7022026},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>-64.210015100000007</v>
+      </c>
+      <c r="B136">
+        <v>-18.196885600000002</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>4</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -18.1968856, lng: -64.2100151},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>-80.381890100000007</v>
+      </c>
+      <c r="B137">
+        <v>-0.93257760000000001</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -0.9325776, lng: -80.3818901},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>-80.733452600000007</v>
+      </c>
+      <c r="B138">
+        <v>-6.0191727000000004</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="4"/>
+        <v>{lat: -6.0191727, lng: -80.7334526},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>35.699849999999998</v>
+      </c>
+      <c r="B141">
+        <v>36.4271204</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>4</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" ref="H141" si="5">D141&amp;B141&amp;E141&amp;F141&amp;A141&amp;G141</f>
+        <v>{lat: 36.4271204, lng: 35.69985},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>36.023178199999997</v>
+      </c>
+      <c r="B142">
+        <v>34.620907600000002</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>4</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" ref="H142:H161" si="6">D142&amp;B142&amp;E142&amp;F142&amp;A142&amp;G142</f>
+        <v>{lat: 34.6209076, lng: 36.0231782},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>34.968490699999997</v>
+      </c>
+      <c r="B143">
+        <v>33.3455753</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" t="s">
+        <v>4</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 33.3455753, lng: 34.9684907},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>34.836654699999997</v>
+      </c>
+      <c r="B144">
+        <v>32.125750199999999</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" t="s">
+        <v>4</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 32.1257502, lng: 34.8366547},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>34.0895844</v>
+      </c>
+      <c r="B145">
+        <v>31.3033301</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 31.3033301, lng: 34.0895844},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>36.5505219</v>
+      </c>
+      <c r="B146">
+        <v>31.453402799999999</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>4</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 31.4534028, lng: 36.5505219},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>39.099350100000002</v>
+      </c>
+      <c r="B147">
+        <v>32.311642999999997</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>4</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 32.311643, lng: 39.0993501},</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>41.736068799999998</v>
+      </c>
+      <c r="B148">
+        <v>31.453402799999999</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>4</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 31.4534028, lng: 41.7360688},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>43.142318799999998</v>
+      </c>
+      <c r="B149">
+        <v>30.1735224</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>4</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 30.1735224, lng: 43.1423188},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>45.998764100000002</v>
+      </c>
+      <c r="B150">
+        <v>29.142462900000002</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>4</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 29.1424629, lng: 45.9987641},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>48.130111800000002</v>
+      </c>
+      <c r="B151">
+        <v>29.1616523</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 29.1616523, lng: 48.1301118},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>48.117448400000001</v>
+      </c>
+      <c r="B152">
+        <v>29.591633399999999</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>3</v>
+      </c>
+      <c r="G152" t="s">
+        <v>4</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 29.5916334, lng: 48.1174484},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>48.996354599999997</v>
+      </c>
+      <c r="B153">
+        <v>30.239160399999999</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 30.2391604, lng: 48.9963546},</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>50.182878100000003</v>
+      </c>
+      <c r="B154">
+        <v>30.239160399999999</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" t="s">
+        <v>4</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 30.2391604, lng: 50.1828781},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>50.948873399999997</v>
+      </c>
+      <c r="B155">
+        <v>29.1968666</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>4</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 29.1968666, lng: 50.9488734},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>50.509420300000002</v>
+      </c>
+      <c r="B156">
+        <v>31.021496800000001</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 31.0214968, lng: 50.5094203},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>48.531881200000001</v>
+      </c>
+      <c r="B157">
+        <v>32.885680100000002</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>3</v>
+      </c>
+      <c r="G157" t="s">
+        <v>4</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 32.8856801, lng: 48.5318812},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>45.983053099999999</v>
+      </c>
+      <c r="B158">
+        <v>35.6453372</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" t="s">
+        <v>4</v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 35.6453372, lng: 45.9830531},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>43.126607800000002</v>
+      </c>
+      <c r="B159">
+        <v>37.166098400000003</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 37.1660984, lng: 43.1266078},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>39.567037499999998</v>
+      </c>
+      <c r="B160">
+        <v>37.060966999999998</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" t="s">
+        <v>4</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 37.060967, lng: 39.5670375},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>35.699849999999998</v>
+      </c>
+      <c r="B161">
+        <v>36.4271204</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="6"/>
+        <v>{lat: 36.4271204, lng: 35.69985},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
